--- a/File 2-Portfolios template.xlsx
+++ b/File 2-Portfolios template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jordi2021\Recerca_Articles\2022Pre_Financial\Excels20220608\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jordi2021\Recerca_Articles\2022Pre_Financial\Excels20220714\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAE1BA7-714D-497C-9A02-77B90BCA9500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963E785C-A9FD-41D5-B3E8-45C7A929C3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
@@ -314,9 +314,6 @@
 (t-1)</t>
   </si>
   <si>
-    <t>Total general</t>
-  </si>
-  <si>
     <t>Description of the worksheet content.</t>
   </si>
   <si>
@@ -355,6 +352,9 @@
   </si>
   <si>
     <t>Final portfolio results: Table for Small-Big versus Conservative-Medium-Aggressive.</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -715,19 +715,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -756,12 +743,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -781,6 +762,29 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -865,7 +869,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Jordi" refreshedDate="44747.642085416664" refreshedVersion="8" recordCount="30" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Jordi" refreshedDate="44756.657210879632" refreshedVersion="8" recordCount="30" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R31" sheet="Classification"/>
   </cacheSource>
@@ -1874,7 +1878,7 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="146.75" style="4" customWidth="1"/>
@@ -1882,64 +1886,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="30"/>
+      <c r="A1" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>90</v>
+      <c r="A3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
   </mergeCells>
@@ -1951,9 +1956,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="11" width="13.5" customWidth="1"/>
     <col min="12" max="18" width="15.125" customWidth="1"/>
@@ -1961,2733 +1968,2733 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="60.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="45" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="48">
         <v>101450.4</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="48">
         <v>10126</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="48">
         <v>32136</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="48">
         <v>6390</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="48">
         <v>-448</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="48">
         <v>16736</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="48">
         <v>44659</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="48">
         <v>36500</v>
       </c>
-      <c r="L2" s="10" t="str">
+      <c r="L2" s="46" t="str">
         <f t="shared" ref="L2:L33" si="0">IF(ISBLANK(D2),"",IF(D2&lt;=MEDIAN($D$2:$D$1048576),"SMALL","BIG"))</f>
         <v>SMALL</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="46">
         <f t="shared" ref="M2:M50" si="1">IF(E2&lt;0,"",IF(D2=0,"",E2/D2))</f>
         <v>9.9812322080543803E-2</v>
       </c>
-      <c r="N2" s="10" t="str">
+      <c r="N2" s="46" t="str">
         <f t="shared" ref="N2:N33" si="2">IF(OR(ISBLANK(D2),ISBLANK(E2),D2=0,E2&lt;0),"",IF(M2&lt;=_xlfn.PERCENTILE.EXC($M$2:$M$1048576,0.3),"LOW",IF(M2&lt;=_xlfn.PERCENTILE.EXC($M$2:$M$1048576,0.7),"MEDIUM","HIGH")))</f>
         <v>LOW</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="46">
         <f t="shared" ref="O2:O50" si="3">IF(E2&lt;0,"",IF(E2=0,"",(F2-I2-G2+H2)/E2))</f>
         <v>0.84554611890183684</v>
       </c>
-      <c r="P2" s="10" t="str">
+      <c r="P2" s="46" t="str">
         <f t="shared" ref="P2:P33" si="4">IF(OR(ISBLANK(F2),ISBLANK(G2),ISBLANK(H2),ISBLANK(I2),ISBLANK(E2),E2&lt;0,E2=0),"",IF(O2&lt;=_xlfn.PERCENTILE.EXC($O$2:$O$1048576,0.3),"WEAK",IF(O2&lt;=_xlfn.PERCENTILE.EXC($O$2:$O$1048576,0.7),"MEDIUM","ROBUST")))</f>
         <v>ROBUST</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="46">
         <f t="shared" ref="Q2:Q50" si="5">IF(K2=0,"",(J2-K2)/K2)</f>
         <v>0.22353424657534246</v>
       </c>
-      <c r="R2" s="10" t="str">
+      <c r="R2" s="46" t="str">
         <f t="shared" ref="R2:R33" si="6">IF(OR(ISBLANK(J2),ISBLANK(K2)),"",IF(Q2&lt;=_xlfn.PERCENTILE.EXC($Q$2:$Q$1048576,0.3),"CONSERVATIVE",IF(Q2&lt;=_xlfn.PERCENTILE.EXC($Q$2:$Q$1048576,0.7),"MEDIUM","AGGRESSIVE")))</f>
         <v>AGGRESSIVE</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="48">
         <v>101866.5</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="48">
         <v>23071</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="48">
         <v>39983</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="48">
         <v>13051</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="48">
         <v>0</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="48">
         <v>12661</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="48">
         <v>198321</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="48">
         <v>188602</v>
       </c>
-      <c r="L3" s="10" t="str">
+      <c r="L3" s="46" t="str">
         <f t="shared" si="0"/>
         <v>SMALL</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="46">
         <f t="shared" si="1"/>
         <v>0.22648270039708834</v>
       </c>
-      <c r="N3" s="10" t="str">
+      <c r="N3" s="46" t="str">
         <f t="shared" si="2"/>
         <v>MEDIUM</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="46">
         <f t="shared" si="3"/>
         <v>0.61856876598326904</v>
       </c>
-      <c r="P3" s="10" t="str">
+      <c r="P3" s="46" t="str">
         <f t="shared" si="4"/>
         <v>ROBUST</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="46">
         <f t="shared" si="5"/>
         <v>5.1531797117740002E-2</v>
       </c>
-      <c r="R3" s="10" t="str">
+      <c r="R3" s="46" t="str">
         <f t="shared" si="6"/>
         <v>MEDIUM</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="48">
         <v>143239.79999999999</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="48">
         <v>9673</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="48">
         <v>23362</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="48">
         <v>5150</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="48">
         <v>-1289</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="48">
         <v>4356</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="48">
         <v>59707</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="48">
         <v>66416</v>
       </c>
-      <c r="L4" s="10" t="str">
+      <c r="L4" s="46" t="str">
         <f t="shared" si="0"/>
         <v>SMALL</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="46">
         <f t="shared" si="1"/>
         <v>6.7530113837076008E-2</v>
       </c>
-      <c r="N4" s="10" t="str">
+      <c r="N4" s="46" t="str">
         <f t="shared" si="2"/>
         <v>LOW</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="46">
         <f t="shared" si="3"/>
         <v>1.2991832937041248</v>
       </c>
-      <c r="P4" s="10" t="str">
+      <c r="P4" s="46" t="str">
         <f t="shared" si="4"/>
         <v>ROBUST</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="46">
         <f t="shared" si="5"/>
         <v>-0.10101481570705854</v>
       </c>
-      <c r="R4" s="10" t="str">
+      <c r="R4" s="46" t="str">
         <f t="shared" si="6"/>
         <v>CONSERVATIVE</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="48">
         <v>1304764.8</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="48">
         <v>89531</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="48">
         <v>267683</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="48">
         <v>18659</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="48">
         <v>-3471</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="48">
         <v>166105</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="48">
         <v>340618</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="48">
         <v>373719</v>
       </c>
-      <c r="L5" s="10" t="str">
+      <c r="L5" s="46" t="str">
         <f t="shared" si="0"/>
         <v>BIG</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="46">
         <f t="shared" si="1"/>
         <v>6.8618497372093426E-2</v>
       </c>
-      <c r="N5" s="10" t="str">
+      <c r="N5" s="46" t="str">
         <f t="shared" si="2"/>
         <v>LOW</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="46">
         <f t="shared" si="3"/>
         <v>0.88737979024025193</v>
       </c>
-      <c r="P5" s="10" t="str">
+      <c r="P5" s="46" t="str">
         <f t="shared" si="4"/>
         <v>ROBUST</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="46">
         <f t="shared" si="5"/>
         <v>-8.8571894926401926E-2</v>
       </c>
-      <c r="R5" s="10" t="str">
+      <c r="R5" s="46" t="str">
         <f t="shared" si="6"/>
         <v>CONSERVATIVE</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="48">
         <v>81616.600000000006</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="48">
         <v>14629</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="48">
         <v>53800</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="48">
         <v>4796</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="48">
         <v>-421</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="48">
         <v>36630</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="48">
         <v>78453</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="48">
         <v>78509</v>
       </c>
-      <c r="L6" s="10" t="str">
+      <c r="L6" s="46" t="str">
         <f t="shared" si="0"/>
         <v>SMALL</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="46">
         <f t="shared" si="1"/>
         <v>0.17924049764386166</v>
       </c>
-      <c r="N6" s="10" t="str">
+      <c r="N6" s="46" t="str">
         <f t="shared" si="2"/>
         <v>MEDIUM</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="46">
         <f t="shared" si="3"/>
         <v>0.81707567161118322</v>
       </c>
-      <c r="P6" s="10" t="str">
+      <c r="P6" s="46" t="str">
         <f t="shared" si="4"/>
         <v>ROBUST</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="46">
         <f t="shared" si="5"/>
         <v>-7.1329401724643036E-4</v>
       </c>
-      <c r="R6" s="10" t="str">
+      <c r="R6" s="46" t="str">
         <f t="shared" si="6"/>
         <v>CONSERVATIVE</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="48">
         <v>227869</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="48">
         <v>145208</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="48">
         <v>139865</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="48">
         <v>26590</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="48">
         <v>-798</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="48">
         <v>80113</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="48">
         <v>237428</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="48">
         <v>253863</v>
       </c>
-      <c r="L7" s="10" t="str">
+      <c r="L7" s="46" t="str">
         <f t="shared" si="0"/>
         <v>BIG</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="46">
         <f t="shared" si="1"/>
         <v>0.63724332840360032</v>
       </c>
-      <c r="N7" s="10" t="str">
+      <c r="N7" s="46" t="str">
         <f t="shared" si="2"/>
         <v>HIGH</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="46">
         <f t="shared" si="3"/>
         <v>0.22288028207812241</v>
       </c>
-      <c r="P7" s="10" t="str">
+      <c r="P7" s="46" t="str">
         <f t="shared" si="4"/>
         <v>WEAK</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="46">
         <f t="shared" si="5"/>
         <v>-6.4739643035810659E-2</v>
       </c>
-      <c r="R7" s="10" t="str">
+      <c r="R7" s="46" t="str">
         <f t="shared" si="6"/>
         <v>CONSERVATIVE</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="48">
         <v>203458.9</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="48">
         <v>35533</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="48">
         <v>51550</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="48">
         <v>11711</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="48">
         <v>-751</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="48">
         <v>18575</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="48">
         <v>90426</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="48">
         <v>102462</v>
       </c>
-      <c r="L8" s="10" t="str">
+      <c r="L8" s="46" t="str">
         <f t="shared" si="0"/>
         <v>SMALL</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="46">
         <f t="shared" si="1"/>
         <v>0.17464460881288554</v>
       </c>
-      <c r="N8" s="10" t="str">
+      <c r="N8" s="46" t="str">
         <f t="shared" si="2"/>
         <v>MEDIUM</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="46">
         <f t="shared" si="3"/>
         <v>0.57729434610080765</v>
       </c>
-      <c r="P8" s="10" t="str">
+      <c r="P8" s="46" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="46">
         <f t="shared" si="5"/>
         <v>-0.11746793933360661</v>
       </c>
-      <c r="R8" s="10" t="str">
+      <c r="R8" s="46" t="str">
         <f t="shared" si="6"/>
         <v>CONSERVATIVE</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="48">
         <v>40582.1</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="48">
         <v>14094</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="48">
         <v>42951</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="48">
         <v>1385</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="48">
         <v>-933</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="48">
         <v>36621</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="48">
         <v>60524</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="48">
         <v>83699</v>
       </c>
-      <c r="L9" s="10" t="str">
+      <c r="L9" s="46" t="str">
         <f t="shared" si="0"/>
         <v>SMALL</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="46">
         <f t="shared" si="1"/>
         <v>0.34729597531916784</v>
       </c>
-      <c r="N9" s="10" t="str">
+      <c r="N9" s="46" t="str">
         <f t="shared" si="2"/>
         <v>HIGH</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="46">
         <f t="shared" si="3"/>
         <v>0.28466013906626936</v>
       </c>
-      <c r="P9" s="10" t="str">
+      <c r="P9" s="46" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="46">
         <f t="shared" si="5"/>
         <v>-0.2768850284949641</v>
       </c>
-      <c r="R9" s="10" t="str">
+      <c r="R9" s="46" t="str">
         <f t="shared" si="6"/>
         <v>CONSERVATIVE</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="48">
         <v>126472.4</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="48">
         <v>18713</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="48">
         <v>36709</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="48">
         <v>4866</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="48">
         <v>-357</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="48">
         <v>24339</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="48">
         <v>58679</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="48">
         <v>57773</v>
       </c>
-      <c r="L10" s="10" t="str">
+      <c r="L10" s="46" t="str">
         <f t="shared" si="0"/>
         <v>SMALL</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="46">
         <f t="shared" si="1"/>
         <v>0.14796113618465373</v>
       </c>
-      <c r="N10" s="10" t="str">
+      <c r="N10" s="46" t="str">
         <f t="shared" si="2"/>
         <v>MEDIUM</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="46">
         <f t="shared" si="3"/>
         <v>0.38192700261850049</v>
       </c>
-      <c r="P10" s="10" t="str">
+      <c r="P10" s="46" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="46">
         <f t="shared" si="5"/>
         <v>1.5682066016997561E-2</v>
       </c>
-      <c r="R10" s="10" t="str">
+      <c r="R10" s="46" t="str">
         <f t="shared" si="6"/>
         <v>CONSERVATIVE</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="48">
         <v>260347.5</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="48">
         <v>77504</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="48">
         <v>71965</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="48">
         <v>6350</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="48">
         <v>-489</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="48">
         <v>29825</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="48">
         <v>136524</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="48">
         <v>127963</v>
       </c>
-      <c r="L11" s="10" t="str">
+      <c r="L11" s="46" t="str">
         <f t="shared" si="0"/>
         <v>BIG</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="46">
         <f t="shared" si="1"/>
         <v>0.29769442763998116</v>
       </c>
-      <c r="N11" s="10" t="str">
+      <c r="N11" s="46" t="str">
         <f t="shared" si="2"/>
         <v>HIGH</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="46">
         <f t="shared" si="3"/>
         <v>0.45547326589595377</v>
       </c>
-      <c r="P11" s="10" t="str">
+      <c r="P11" s="46" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="46">
         <f t="shared" si="5"/>
         <v>6.6902151403139973E-2</v>
       </c>
-      <c r="R11" s="10" t="str">
+      <c r="R11" s="46" t="str">
         <f t="shared" si="6"/>
         <v>MEDIUM</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="60" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="48">
         <v>118710.8</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="48">
         <v>20985</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="48">
         <v>77147</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="48">
         <v>20382</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="48">
         <v>-1344</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="48">
         <v>39754</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="48">
         <v>152186</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="48">
         <v>123382</v>
       </c>
-      <c r="L12" s="10" t="str">
+      <c r="L12" s="46" t="str">
         <f t="shared" si="0"/>
         <v>SMALL</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="46">
         <f t="shared" si="1"/>
         <v>0.17677414354885992</v>
       </c>
-      <c r="N12" s="10" t="str">
+      <c r="N12" s="46" t="str">
         <f t="shared" si="2"/>
         <v>MEDIUM</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="46">
         <f t="shared" si="3"/>
         <v>0.74658089111269954</v>
       </c>
-      <c r="P12" s="10" t="str">
+      <c r="P12" s="46" t="str">
         <f t="shared" si="4"/>
         <v>ROBUST</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="46">
         <f t="shared" si="5"/>
         <v>0.2334538263279895</v>
       </c>
-      <c r="R12" s="10" t="str">
+      <c r="R12" s="46" t="str">
         <f t="shared" si="6"/>
         <v>AGGRESSIVE</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="45" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="48">
         <v>383911.2</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="48">
         <v>59471</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="48">
         <v>82059</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="48">
         <v>22178</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="48">
         <v>-318</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="48">
         <v>27456</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="48">
         <v>157728</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="48">
         <v>152954</v>
       </c>
-      <c r="L13" s="10" t="str">
+      <c r="L13" s="46" t="str">
         <f t="shared" si="0"/>
         <v>BIG</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="46">
         <f t="shared" si="1"/>
         <v>0.15490821835882881</v>
       </c>
-      <c r="N13" s="10" t="str">
+      <c r="N13" s="46" t="str">
         <f t="shared" si="2"/>
         <v>MEDIUM</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="46">
         <f t="shared" si="3"/>
         <v>0.53987657850044557</v>
       </c>
-      <c r="P13" s="10" t="str">
+      <c r="P13" s="46" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="46">
         <f t="shared" si="5"/>
         <v>3.1211998378597488E-2</v>
       </c>
-      <c r="R13" s="10" t="str">
+      <c r="R13" s="46" t="str">
         <f t="shared" si="6"/>
         <v>MEDIUM</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="45" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="48">
         <v>437160.1</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="48">
         <v>261330</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="48">
         <v>110041</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="48">
         <v>60410</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="48">
         <v>0</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="48">
         <v>0</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="48">
         <v>2687379</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="48">
         <v>2622532</v>
       </c>
-      <c r="L14" s="10" t="str">
+      <c r="L14" s="46" t="str">
         <f t="shared" si="0"/>
         <v>BIG</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="46">
         <f t="shared" si="1"/>
         <v>0.59779014598999314</v>
       </c>
-      <c r="N14" s="10" t="str">
+      <c r="N14" s="46" t="str">
         <f t="shared" si="2"/>
         <v>HIGH</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="46">
         <f t="shared" si="3"/>
         <v>0.18991696322657176</v>
       </c>
-      <c r="P14" s="10" t="str">
+      <c r="P14" s="46" t="str">
         <f t="shared" si="4"/>
         <v>WEAK</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="46">
         <f t="shared" si="5"/>
         <v>2.472686701249022E-2</v>
       </c>
-      <c r="R14" s="10" t="str">
+      <c r="R14" s="46" t="str">
         <f t="shared" si="6"/>
         <v>MEDIUM</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="48">
         <v>148818.79999999999</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="48">
         <v>-8210.2999999999993</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="48">
         <v>21076.5</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="48">
         <v>2229.4</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="48">
         <v>-1121.9000000000001</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="48">
         <v>9961.2000000000007</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="48">
         <v>47510.8</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="48">
         <v>32811.199999999997</v>
       </c>
-      <c r="L15" s="10" t="str">
+      <c r="L15" s="46" t="str">
         <f t="shared" si="0"/>
         <v>SMALL</v>
       </c>
-      <c r="M15" s="10" t="str">
+      <c r="M15" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N15" s="10" t="str">
+      <c r="N15" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O15" s="10" t="str">
+      <c r="O15" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P15" s="10" t="str">
+      <c r="P15" s="46" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="46">
         <f t="shared" si="5"/>
         <v>0.44800555907738843</v>
       </c>
-      <c r="R15" s="10" t="str">
+      <c r="R15" s="46" t="str">
         <f t="shared" si="6"/>
         <v>AGGRESSIVE</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="48">
         <v>231557.3</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="48">
         <v>26001</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="48">
         <v>46840</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="48">
         <v>9863</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="48">
         <v>-893</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="48">
         <v>13156</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="48">
         <v>84397</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="48">
         <v>82637</v>
       </c>
-      <c r="L16" s="10" t="str">
+      <c r="L16" s="46" t="str">
         <f t="shared" si="0"/>
         <v>BIG</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="46">
         <f t="shared" si="1"/>
         <v>0.11228754178771302</v>
       </c>
-      <c r="N16" s="10" t="str">
+      <c r="N16" s="46" t="str">
         <f t="shared" si="2"/>
         <v>LOW</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="46">
         <f t="shared" si="3"/>
         <v>0.88181223799084651</v>
       </c>
-      <c r="P16" s="10" t="str">
+      <c r="P16" s="46" t="str">
         <f t="shared" si="4"/>
         <v>ROBUST</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="46">
         <f t="shared" si="5"/>
         <v>2.1297965802243548E-2</v>
       </c>
-      <c r="R16" s="10" t="str">
+      <c r="R16" s="46" t="str">
         <f t="shared" si="6"/>
         <v>CONSERVATIVE</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="48">
         <v>1203062.6000000001</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="48">
         <v>110109</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="48">
         <v>134249</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="48">
         <v>23583</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="48">
         <v>-2632</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="48">
         <v>43346</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="48">
         <v>282794</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="48">
         <v>258859</v>
       </c>
-      <c r="L17" s="10" t="str">
+      <c r="L17" s="46" t="str">
         <f t="shared" si="0"/>
         <v>BIG</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="46">
         <f t="shared" si="1"/>
         <v>9.1523915713114176E-2</v>
       </c>
-      <c r="N17" s="10" t="str">
+      <c r="N17" s="46" t="str">
         <f t="shared" si="2"/>
         <v>LOW</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="46">
         <f t="shared" si="3"/>
         <v>0.58749057751864064</v>
       </c>
-      <c r="P17" s="10" t="str">
+      <c r="P17" s="46" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="46">
         <f t="shared" si="5"/>
         <v>9.2463464666092357E-2</v>
       </c>
-      <c r="R17" s="10" t="str">
+      <c r="R17" s="46" t="str">
         <f t="shared" si="6"/>
         <v>MEDIUM</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="48">
         <v>158150.20000000001</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="48">
         <v>9351</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="48">
         <v>40781</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="48">
         <v>13149</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="48">
         <v>-128</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="48">
         <v>22394</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="48">
         <v>26602</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="48">
         <v>22677</v>
       </c>
-      <c r="L18" s="10" t="str">
+      <c r="L18" s="46" t="str">
         <f t="shared" si="0"/>
         <v>SMALL</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="46">
         <f t="shared" si="1"/>
         <v>5.912733591231626E-2</v>
       </c>
-      <c r="N18" s="10" t="str">
+      <c r="N18" s="46" t="str">
         <f t="shared" si="2"/>
         <v>LOW</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="46">
         <f t="shared" si="3"/>
         <v>0.54646561865041177</v>
       </c>
-      <c r="P18" s="10" t="str">
+      <c r="P18" s="46" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="46">
         <f t="shared" si="5"/>
         <v>0.17308285928473785</v>
       </c>
-      <c r="R18" s="10" t="str">
+      <c r="R18" s="46" t="str">
         <f t="shared" si="6"/>
         <v>AGGRESSIVE</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="48">
         <v>144261.70000000001</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="48">
         <v>33885</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="48">
         <v>17098</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="48">
         <v>9594</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="48">
         <v>-131</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="48">
         <v>4235</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="48">
         <v>55126</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="48">
         <v>30737</v>
       </c>
-      <c r="L19" s="10" t="str">
+      <c r="L19" s="46" t="str">
         <f t="shared" si="0"/>
         <v>SMALL</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="46">
         <f t="shared" si="1"/>
         <v>0.23488562799412455</v>
       </c>
-      <c r="N19" s="10" t="str">
+      <c r="N19" s="46" t="str">
         <f t="shared" si="2"/>
         <v>MEDIUM</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="46">
         <f t="shared" si="3"/>
         <v>9.2607348384240812E-2</v>
       </c>
-      <c r="P19" s="10" t="str">
+      <c r="P19" s="46" t="str">
         <f t="shared" si="4"/>
         <v>WEAK</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="46">
         <f t="shared" si="5"/>
         <v>0.79347366366268668</v>
       </c>
-      <c r="R19" s="10" t="str">
+      <c r="R19" s="46" t="str">
         <f t="shared" si="6"/>
         <v>AGGRESSIVE</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="48">
         <v>183334.9</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="48">
         <v>-8300</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="48">
         <v>76559</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="48">
         <v>3642</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="48">
         <v>-722</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="48">
         <v>71738</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="48">
         <v>133625</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="48">
         <v>117359</v>
       </c>
-      <c r="L20" s="10" t="str">
+      <c r="L20" s="46" t="str">
         <f t="shared" si="0"/>
         <v>SMALL</v>
       </c>
-      <c r="M20" s="10" t="str">
+      <c r="M20" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N20" s="10" t="str">
+      <c r="N20" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O20" s="10" t="str">
+      <c r="O20" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P20" s="10" t="str">
+      <c r="P20" s="46" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="46">
         <f t="shared" si="5"/>
         <v>0.13860036298877804</v>
       </c>
-      <c r="R20" s="10" t="str">
+      <c r="R20" s="46" t="str">
         <f t="shared" si="6"/>
         <v>MEDIUM</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="48">
         <v>237146.6</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="48">
         <v>21098</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="48">
         <v>37266</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="48">
         <v>12011</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="48">
         <v>-946</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="48">
         <v>14619</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="48">
         <v>86381</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="48">
         <v>83216</v>
       </c>
-      <c r="L21" s="10" t="str">
+      <c r="L21" s="46" t="str">
         <f t="shared" si="0"/>
         <v>BIG</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="46">
         <f t="shared" si="1"/>
         <v>8.8966065716312187E-2</v>
       </c>
-      <c r="N21" s="10" t="str">
+      <c r="N21" s="46" t="str">
         <f t="shared" si="2"/>
         <v>LOW</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="46">
         <f t="shared" si="3"/>
         <v>0.45928524030713813</v>
       </c>
-      <c r="P21" s="10" t="str">
+      <c r="P21" s="46" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="46">
         <f t="shared" si="5"/>
         <v>3.8033551240146124E-2</v>
       </c>
-      <c r="R21" s="10" t="str">
+      <c r="R21" s="46" t="str">
         <f t="shared" si="6"/>
         <v>MEDIUM</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="48">
         <v>81415.199999999997</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="48">
         <v>91978</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="48">
         <v>35481</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="48">
         <v>15437</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="48">
         <v>0</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="48">
         <v>4419</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="48">
         <v>992968</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="48">
         <v>931796</v>
       </c>
-      <c r="L22" s="10" t="str">
+      <c r="L22" s="46" t="str">
         <f t="shared" si="0"/>
         <v>SMALL</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="46">
         <f t="shared" si="1"/>
         <v>1.1297399011486799</v>
       </c>
-      <c r="N22" s="10" t="str">
+      <c r="N22" s="46" t="str">
         <f t="shared" si="2"/>
         <v>HIGH</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="46">
         <f t="shared" si="3"/>
         <v>0.16987757942116594</v>
       </c>
-      <c r="P22" s="10" t="str">
+      <c r="P22" s="46" t="str">
         <f t="shared" si="4"/>
         <v>WEAK</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="46">
         <f t="shared" si="5"/>
         <v>6.5649562779835927E-2</v>
       </c>
-      <c r="R22" s="10" t="str">
+      <c r="R22" s="46" t="str">
         <f t="shared" si="6"/>
         <v>MEDIUM</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="48">
         <v>238215.7</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="48">
         <v>-3116</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="48">
         <v>110225</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="48">
         <v>19740</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="48">
         <v>-1201</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="48">
         <v>72653</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="48">
         <v>51236</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="48">
         <v>44003</v>
       </c>
-      <c r="L23" s="10" t="str">
+      <c r="L23" s="46" t="str">
         <f t="shared" si="0"/>
         <v>BIG</v>
       </c>
-      <c r="M23" s="10" t="str">
+      <c r="M23" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N23" s="10" t="str">
+      <c r="N23" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O23" s="10" t="str">
+      <c r="O23" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P23" s="10" t="str">
+      <c r="P23" s="46" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="46">
         <f t="shared" si="5"/>
         <v>0.16437515623934731</v>
       </c>
-      <c r="R23" s="10" t="str">
+      <c r="R23" s="46" t="str">
         <f t="shared" si="6"/>
         <v>AGGRESSIVE</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="48">
         <v>311477.09999999998</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="48">
         <v>45908</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="48">
         <v>69594</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="48">
         <v>19482</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="48">
         <v>-450</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="48">
         <v>34436</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="48">
         <v>111723</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="48">
         <v>123687</v>
       </c>
-      <c r="L24" s="10" t="str">
+      <c r="L24" s="46" t="str">
         <f t="shared" si="0"/>
         <v>BIG</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="46">
         <f t="shared" si="1"/>
         <v>0.1473880423312019</v>
       </c>
-      <c r="N24" s="10" t="str">
+      <c r="N24" s="46" t="str">
         <f t="shared" si="2"/>
         <v>MEDIUM</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O24" s="46">
         <f t="shared" si="3"/>
         <v>0.33166332665330661</v>
       </c>
-      <c r="P24" s="10" t="str">
+      <c r="P24" s="46" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="Q24" s="46">
         <f t="shared" si="5"/>
         <v>-9.6728031240146492E-2</v>
       </c>
-      <c r="R24" s="10" t="str">
+      <c r="R24" s="46" t="str">
         <f t="shared" si="6"/>
         <v>CONSERVATIVE</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="48">
         <v>35348.5</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="48">
         <v>25943</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="48">
         <v>31581</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="48">
         <v>4365</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="48">
         <v>-344</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="48">
         <v>23734</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="48">
         <v>110122</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="48">
         <v>104233</v>
       </c>
-      <c r="L25" s="10" t="str">
+      <c r="L25" s="46" t="str">
         <f t="shared" si="0"/>
         <v>SMALL</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="46">
         <f t="shared" si="1"/>
         <v>0.73392081700779388</v>
       </c>
-      <c r="N25" s="10" t="str">
+      <c r="N25" s="46" t="str">
         <f t="shared" si="2"/>
         <v>HIGH</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="46">
         <f t="shared" si="3"/>
         <v>0.12095748371429672</v>
       </c>
-      <c r="P25" s="10" t="str">
+      <c r="P25" s="46" t="str">
         <f t="shared" si="4"/>
         <v>WEAK</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="46">
         <f t="shared" si="5"/>
         <v>5.6498421804994578E-2</v>
       </c>
-      <c r="R25" s="10" t="str">
+      <c r="R25" s="46" t="str">
         <f t="shared" si="6"/>
         <v>MEDIUM</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="48">
         <v>260680.9</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="48">
         <v>103802</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="48">
         <v>75125</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="48">
         <v>12812</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="48">
         <v>-1445</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="48">
         <v>46033</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="48">
         <v>200948</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="48">
         <v>99941</v>
       </c>
-      <c r="L26" s="10" t="str">
+      <c r="L26" s="46" t="str">
         <f t="shared" si="0"/>
         <v>BIG</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="46">
         <f t="shared" si="1"/>
         <v>0.39819564839618093</v>
       </c>
-      <c r="N26" s="10" t="str">
+      <c r="N26" s="46" t="str">
         <f t="shared" si="2"/>
         <v>HIGH</v>
       </c>
-      <c r="O26" s="10">
+      <c r="O26" s="46">
         <f t="shared" si="3"/>
         <v>0.14291632145816072</v>
       </c>
-      <c r="P26" s="10" t="str">
+      <c r="P26" s="46" t="str">
         <f t="shared" si="4"/>
         <v>WEAK</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q26" s="46">
         <f t="shared" si="5"/>
         <v>1.0106662931129367</v>
       </c>
-      <c r="R26" s="10" t="str">
+      <c r="R26" s="46" t="str">
         <f t="shared" si="6"/>
         <v>AGGRESSIVE</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="48">
         <v>278521</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="48">
         <v>62162</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="48">
         <v>242155</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="48">
         <v>35193</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="48">
         <v>-1704</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="48">
         <v>184557</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="48">
         <v>173889</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="48">
         <v>152221</v>
       </c>
-      <c r="L27" s="10" t="str">
+      <c r="L27" s="46" t="str">
         <f t="shared" si="0"/>
         <v>BIG</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="46">
         <f t="shared" si="1"/>
         <v>0.22318604342221951</v>
       </c>
-      <c r="N27" s="10" t="str">
+      <c r="N27" s="46" t="str">
         <f t="shared" si="2"/>
         <v>MEDIUM</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="46">
         <f t="shared" si="3"/>
         <v>0.33301695569640616</v>
       </c>
-      <c r="P27" s="10" t="str">
+      <c r="P27" s="46" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="46">
         <f t="shared" si="5"/>
         <v>0.14234566846887092</v>
       </c>
-      <c r="R27" s="10" t="str">
+      <c r="R27" s="46" t="str">
         <f t="shared" si="6"/>
         <v>AGGRESSIVE</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="48">
         <v>253937.2</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="48">
         <v>62835</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="48">
         <v>131868</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="48">
         <v>28939</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="48">
         <v>-4730</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="48">
         <v>54726</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="48">
         <v>291727</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="48">
         <v>264829</v>
       </c>
-      <c r="L28" s="10" t="str">
+      <c r="L28" s="46" t="str">
         <f t="shared" si="0"/>
         <v>BIG</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="46">
         <f t="shared" si="1"/>
         <v>0.24744306860121321</v>
       </c>
-      <c r="N28" s="10" t="str">
+      <c r="N28" s="46" t="str">
         <f t="shared" si="2"/>
         <v>MEDIUM</v>
       </c>
-      <c r="O28" s="10">
+      <c r="O28" s="46">
         <f t="shared" si="3"/>
         <v>0.69185963237049419</v>
       </c>
-      <c r="P28" s="10" t="str">
+      <c r="P28" s="46" t="str">
         <f t="shared" si="4"/>
         <v>ROBUST</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="Q28" s="46">
         <f t="shared" si="5"/>
         <v>0.1015674265280615</v>
       </c>
-      <c r="R28" s="10" t="str">
+      <c r="R28" s="46" t="str">
         <f t="shared" si="6"/>
         <v>MEDIUM</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="48">
         <v>404885.2</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="48">
         <v>35270</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="48">
         <v>23525</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="48">
         <v>6387</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="48">
         <v>-499</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="48">
         <v>729</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="48">
         <v>74781</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="48">
         <v>71655</v>
       </c>
-      <c r="L29" s="10" t="str">
+      <c r="L29" s="46" t="str">
         <f t="shared" si="0"/>
         <v>BIG</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="46">
         <f t="shared" si="1"/>
         <v>8.7111111989274986E-2</v>
       </c>
-      <c r="N29" s="10" t="str">
+      <c r="N29" s="46" t="str">
         <f t="shared" si="2"/>
         <v>LOW</v>
       </c>
-      <c r="O29" s="10">
+      <c r="O29" s="46">
         <f t="shared" si="3"/>
         <v>0.451091579245818</v>
       </c>
-      <c r="P29" s="10" t="str">
+      <c r="P29" s="46" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="46">
         <f t="shared" si="5"/>
         <v>4.3625706510362149E-2</v>
       </c>
-      <c r="R29" s="10" t="str">
+      <c r="R29" s="46" t="str">
         <f t="shared" si="6"/>
         <v>MEDIUM</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="48">
         <v>52355.7</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="48">
         <v>24314</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="48">
         <v>137412</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="48">
         <v>24836</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="48">
         <v>-684</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="48">
         <v>107715</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="48">
         <v>90807</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="48">
         <v>69941</v>
       </c>
-      <c r="L30" s="10" t="str">
+      <c r="L30" s="46" t="str">
         <f t="shared" si="0"/>
         <v>SMALL</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="46">
         <f t="shared" si="1"/>
         <v>0.46440024677351277</v>
       </c>
-      <c r="N30" s="10" t="str">
+      <c r="N30" s="46" t="str">
         <f t="shared" si="2"/>
         <v>HIGH</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="46">
         <f t="shared" si="3"/>
         <v>0.17179402813194045</v>
       </c>
-      <c r="P30" s="10" t="str">
+      <c r="P30" s="46" t="str">
         <f t="shared" si="4"/>
         <v>WEAK</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="46">
         <f t="shared" si="5"/>
         <v>0.29833716990034459</v>
       </c>
-      <c r="R30" s="10" t="str">
+      <c r="R30" s="46" t="str">
         <f t="shared" si="6"/>
         <v>AGGRESSIVE</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="48">
         <v>337169.9</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="48">
         <v>81552</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="48">
         <v>523964</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="48">
         <v>107891</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="48">
         <v>-2599</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="48">
         <v>394605</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="48">
         <v>236495</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="48">
         <v>219295</v>
       </c>
-      <c r="L31" s="10" t="str">
+      <c r="L31" s="46" t="str">
         <f t="shared" si="0"/>
         <v>BIG</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="46">
         <f t="shared" si="1"/>
         <v>0.24187212440968187</v>
       </c>
-      <c r="N31" s="10" t="str">
+      <c r="N31" s="46" t="str">
         <f t="shared" si="2"/>
         <v>MEDIUM</v>
       </c>
-      <c r="O31" s="10">
+      <c r="O31" s="46">
         <f t="shared" si="3"/>
         <v>0.23137384736119285</v>
       </c>
-      <c r="P31" s="10" t="str">
+      <c r="P31" s="46" t="str">
         <f t="shared" si="4"/>
         <v>WEAK</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="Q31" s="46">
         <f t="shared" si="5"/>
         <v>7.843316081078E-2</v>
       </c>
-      <c r="R31" s="10" t="str">
+      <c r="R31" s="46" t="str">
         <f t="shared" si="6"/>
         <v>MEDIUM</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="10" t="str">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M32" s="10" t="str">
+      <c r="M32" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N32" s="10" t="str">
+      <c r="N32" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O32" s="10" t="str">
+      <c r="O32" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P32" s="10" t="str">
+      <c r="P32" s="46" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q32" s="10" t="str">
+      <c r="Q32" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R32" s="10" t="str">
+      <c r="R32" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="10" t="str">
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M33" s="10" t="str">
+      <c r="M33" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N33" s="10" t="str">
+      <c r="N33" s="46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O33" s="10" t="str">
+      <c r="O33" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P33" s="10" t="str">
+      <c r="P33" s="46" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q33" s="10" t="str">
+      <c r="Q33" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R33" s="10" t="str">
+      <c r="R33" s="46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="10" t="str">
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="46" t="str">
         <f t="shared" ref="L34:L50" si="7">IF(ISBLANK(D34),"",IF(D34&lt;=MEDIAN($D$2:$D$1048576),"SMALL","BIG"))</f>
         <v/>
       </c>
-      <c r="M34" s="10" t="str">
+      <c r="M34" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N34" s="10" t="str">
+      <c r="N34" s="46" t="str">
         <f t="shared" ref="N34:N50" si="8">IF(OR(ISBLANK(D34),ISBLANK(E34),D34=0,E34&lt;0),"",IF(M34&lt;=_xlfn.PERCENTILE.EXC($M$2:$M$1048576,0.3),"LOW",IF(M34&lt;=_xlfn.PERCENTILE.EXC($M$2:$M$1048576,0.7),"MEDIUM","HIGH")))</f>
         <v/>
       </c>
-      <c r="O34" s="10" t="str">
+      <c r="O34" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P34" s="10" t="str">
+      <c r="P34" s="46" t="str">
         <f t="shared" ref="P34:P50" si="9">IF(OR(ISBLANK(F34),ISBLANK(G34),ISBLANK(H34),ISBLANK(I34),ISBLANK(E34),E34&lt;0,E34=0),"",IF(O34&lt;=_xlfn.PERCENTILE.EXC($O$2:$O$1048576,0.3),"WEAK",IF(O34&lt;=_xlfn.PERCENTILE.EXC($O$2:$O$1048576,0.7),"MEDIUM","ROBUST")))</f>
         <v/>
       </c>
-      <c r="Q34" s="10" t="str">
+      <c r="Q34" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R34" s="10" t="str">
+      <c r="R34" s="46" t="str">
         <f t="shared" ref="R34:R50" si="10">IF(OR(ISBLANK(J34),ISBLANK(K34)),"",IF(Q34&lt;=_xlfn.PERCENTILE.EXC($Q$2:$Q$1048576,0.3),"CONSERVATIVE",IF(Q34&lt;=_xlfn.PERCENTILE.EXC($Q$2:$Q$1048576,0.7),"MEDIUM","AGGRESSIVE")))</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="10" t="str">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="46" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M35" s="10" t="str">
+      <c r="M35" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N35" s="10" t="str">
+      <c r="N35" s="46" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="O35" s="10" t="str">
+      <c r="O35" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P35" s="10" t="str">
+      <c r="P35" s="46" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q35" s="10" t="str">
+      <c r="Q35" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R35" s="10" t="str">
+      <c r="R35" s="46" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="10" t="str">
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="46" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M36" s="10" t="str">
+      <c r="M36" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N36" s="10" t="str">
+      <c r="N36" s="46" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="O36" s="10" t="str">
+      <c r="O36" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P36" s="10" t="str">
+      <c r="P36" s="46" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q36" s="10" t="str">
+      <c r="Q36" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R36" s="10" t="str">
+      <c r="R36" s="46" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="10" t="str">
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="46" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M37" s="10" t="str">
+      <c r="M37" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N37" s="10" t="str">
+      <c r="N37" s="46" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="O37" s="10" t="str">
+      <c r="O37" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P37" s="10" t="str">
+      <c r="P37" s="46" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q37" s="10" t="str">
+      <c r="Q37" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R37" s="10" t="str">
+      <c r="R37" s="46" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="10" t="str">
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="46" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M38" s="10" t="str">
+      <c r="M38" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N38" s="10" t="str">
+      <c r="N38" s="46" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="O38" s="10" t="str">
+      <c r="O38" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P38" s="10" t="str">
+      <c r="P38" s="46" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q38" s="10" t="str">
+      <c r="Q38" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R38" s="10" t="str">
+      <c r="R38" s="46" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="10" t="str">
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="46" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M39" s="10" t="str">
+      <c r="M39" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N39" s="10" t="str">
+      <c r="N39" s="46" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="O39" s="10" t="str">
+      <c r="O39" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P39" s="10" t="str">
+      <c r="P39" s="46" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q39" s="10" t="str">
+      <c r="Q39" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R39" s="10" t="str">
+      <c r="R39" s="46" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="10" t="str">
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="46" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M40" s="10" t="str">
+      <c r="M40" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N40" s="10" t="str">
+      <c r="N40" s="46" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="O40" s="10" t="str">
+      <c r="O40" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P40" s="10" t="str">
+      <c r="P40" s="46" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q40" s="10" t="str">
+      <c r="Q40" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R40" s="10" t="str">
+      <c r="R40" s="46" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="10" t="str">
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="46" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M41" s="10" t="str">
+      <c r="M41" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N41" s="10" t="str">
+      <c r="N41" s="46" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="O41" s="10" t="str">
+      <c r="O41" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P41" s="10" t="str">
+      <c r="P41" s="46" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q41" s="10" t="str">
+      <c r="Q41" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R41" s="10" t="str">
+      <c r="R41" s="46" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="10" t="str">
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="46" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M42" s="10" t="str">
+      <c r="M42" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N42" s="10" t="str">
+      <c r="N42" s="46" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="O42" s="10" t="str">
+      <c r="O42" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P42" s="10" t="str">
+      <c r="P42" s="46" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q42" s="10" t="str">
+      <c r="Q42" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R42" s="10" t="str">
+      <c r="R42" s="46" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="10" t="str">
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="46" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M43" s="10" t="str">
+      <c r="M43" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N43" s="10" t="str">
+      <c r="N43" s="46" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="O43" s="10" t="str">
+      <c r="O43" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P43" s="10" t="str">
+      <c r="P43" s="46" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q43" s="10" t="str">
+      <c r="Q43" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R43" s="10" t="str">
+      <c r="R43" s="46" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="10" t="str">
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="46" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M44" s="10" t="str">
+      <c r="M44" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N44" s="10" t="str">
+      <c r="N44" s="46" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="O44" s="10" t="str">
+      <c r="O44" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P44" s="10" t="str">
+      <c r="P44" s="46" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q44" s="10" t="str">
+      <c r="Q44" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R44" s="10" t="str">
+      <c r="R44" s="46" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="10" t="str">
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="46" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M45" s="10" t="str">
+      <c r="M45" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N45" s="10" t="str">
+      <c r="N45" s="46" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="O45" s="10" t="str">
+      <c r="O45" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P45" s="10" t="str">
+      <c r="P45" s="46" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q45" s="10" t="str">
+      <c r="Q45" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R45" s="10" t="str">
+      <c r="R45" s="46" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="10" t="str">
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="46" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M46" s="10" t="str">
+      <c r="M46" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N46" s="10" t="str">
+      <c r="N46" s="46" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="O46" s="10" t="str">
+      <c r="O46" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P46" s="10" t="str">
+      <c r="P46" s="46" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q46" s="10" t="str">
+      <c r="Q46" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R46" s="10" t="str">
+      <c r="R46" s="46" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="10" t="str">
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="46" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M47" s="10" t="str">
+      <c r="M47" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N47" s="10" t="str">
+      <c r="N47" s="46" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="O47" s="10" t="str">
+      <c r="O47" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P47" s="10" t="str">
+      <c r="P47" s="46" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q47" s="10" t="str">
+      <c r="Q47" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R47" s="10" t="str">
+      <c r="R47" s="46" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="10" t="str">
+      <c r="A48" s="49"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="46" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M48" s="10" t="str">
+      <c r="M48" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N48" s="10" t="str">
+      <c r="N48" s="46" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="O48" s="10" t="str">
+      <c r="O48" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P48" s="10" t="str">
+      <c r="P48" s="46" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q48" s="10" t="str">
+      <c r="Q48" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R48" s="10" t="str">
+      <c r="R48" s="46" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="10" t="str">
+      <c r="A49" s="49"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="46" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M49" s="10" t="str">
+      <c r="M49" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N49" s="10" t="str">
+      <c r="N49" s="46" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="O49" s="10" t="str">
+      <c r="O49" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P49" s="10" t="str">
+      <c r="P49" s="46" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q49" s="10" t="str">
+      <c r="Q49" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R49" s="10" t="str">
+      <c r="R49" s="46" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="10" t="str">
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="46" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M50" s="10" t="str">
+      <c r="M50" s="46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N50" s="10" t="str">
+      <c r="N50" s="46" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="O50" s="10" t="str">
+      <c r="O50" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P50" s="10" t="str">
+      <c r="P50" s="46" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q50" s="10" t="str">
+      <c r="Q50" s="46" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R50" s="10" t="str">
+      <c r="R50" s="46" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4697,7 +4704,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
@@ -4705,202 +4712,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="E2" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="31">
         <v>3</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="32">
         <v>4</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="32">
         <v>8</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="33">
         <v>15</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="35">
         <v>6</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="36">
         <v>5</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="36">
         <v>4</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="37">
         <v>15</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="46">
+      <c r="A5" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="39">
         <v>9</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="40">
         <v>9</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="40">
         <v>12</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="41">
         <v>30</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5896,7 +5903,7 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="13.75" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9.375" hidden="1" customWidth="1"/>
@@ -5927,14 +5934,14 @@
       <c r="F1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="12" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5957,17 +5964,17 @@
       <c r="F2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="19" t="str">
+      <c r="K2" s="14" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,A3:A35)</f>
         <v xml:space="preserve">Chevron Corporation 
 Intel Corporation 
 JPMorgan Chase &amp; Co. 
 The Walt Disney Company </v>
       </c>
-      <c r="L2" s="19" t="str">
+      <c r="L2" s="14" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,B3:B35)</f>
         <v xml:space="preserve">Johnson &amp; Johnson 
 The Procter &amp; Gamble Company 
@@ -5975,7 +5982,7 @@
 Verizon Communications Inc. 
 Walmart Inc. </v>
       </c>
-      <c r="M2" s="19" t="str">
+      <c r="M2" s="14" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,C3:C35)</f>
         <v xml:space="preserve">Apple Inc. 
 Merck &amp; Co., Inc. 
@@ -6009,17 +6016,17 @@
         <f>IF(AND(Classification!$L2=BSHL!F$1,Classification!$N2=BSHL!F$2),Classification!$A2,"")</f>
         <v xml:space="preserve">3M Company </v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="19" t="str">
+      <c r="K3" s="14" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,D3:D35)</f>
         <v xml:space="preserve">Dow Inc. 
 The Goldman Sachs Group, Inc. 
 The Travelers Companies, Inc. 
 Walgreens Boots Alliance, Inc. </v>
       </c>
-      <c r="L3" s="19" t="str">
+      <c r="L3" s="14" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,E3:E35)</f>
         <v xml:space="preserve">American Express Company 
 Caterpillar Inc. 
@@ -6028,7 +6035,7 @@
 International Business Machines Corporation 
 Salesforce.com, Inc. </v>
       </c>
-      <c r="M3" s="19" t="str">
+      <c r="M3" s="14" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,F3:F35)</f>
         <v xml:space="preserve">3M Company 
 Amgen Inc. 
@@ -11693,6 +11700,7 @@
       <c r="C1000" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -11706,7 +11714,7 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="13.75" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9.375" hidden="1" customWidth="1"/>
@@ -11719,70 +11727,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="17" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="23" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="24" t="str">
+      <c r="K2" s="19" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,A3:A35)</f>
         <v xml:space="preserve">Apple Inc. 
 Merck &amp; Co., Inc. 
 Verizon Communications Inc. </v>
       </c>
-      <c r="L2" s="24" t="str">
+      <c r="L2" s="19" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,B3:B35)</f>
         <v xml:space="preserve">Intel Corporation 
 Johnson &amp; Johnson 
@@ -11792,7 +11800,7 @@
 UnitedHealth Group Incorporated 
 Visa Inc. </v>
       </c>
-      <c r="M2" s="24" t="str">
+      <c r="M2" s="19" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,C3:C35)</f>
         <v xml:space="preserve">Chevron Corporation 
 JPMorgan Chase &amp; Co. 
@@ -11801,37 +11809,37 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="str">
+      <c r="A3" s="24" t="str">
         <f>IF(AND(Classification!$L2=BSRW!A$1,Classification!$P2=BSRW!A$2),Classification!$A2,"")</f>
         <v/>
       </c>
-      <c r="B3" s="29" t="str">
+      <c r="B3" s="24" t="str">
         <f>IF(AND(Classification!$L2=BSRW!B$1,Classification!$P2=BSRW!B$2),Classification!$A2,"")</f>
         <v/>
       </c>
-      <c r="C3" s="29" t="str">
+      <c r="C3" s="24" t="str">
         <f>IF(AND(Classification!$L2=BSRW!C$1,Classification!$P2=BSRW!C$2),Classification!$A2,"")</f>
         <v/>
       </c>
-      <c r="D3" s="29" t="str">
+      <c r="D3" s="24" t="str">
         <f>IF(AND(Classification!$L2=BSRW!D$1,Classification!$P2=BSRW!D$2),Classification!$A2,"")</f>
         <v xml:space="preserve">3M Company </v>
       </c>
-      <c r="E3" s="29" t="str">
+      <c r="E3" s="24" t="str">
         <f>IF(AND(Classification!$L2=BSRW!E$1,Classification!$P2=BSRW!E$2),Classification!$A2,"")</f>
         <v/>
       </c>
-      <c r="F3" s="29" t="str">
+      <c r="F3" s="24" t="str">
         <f>IF(AND(Classification!$L2=BSRW!F$1,Classification!$P2=BSRW!F$2),Classification!$A2,"")</f>
         <v/>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="23" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="24" t="str">
+      <c r="K3" s="19" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,D3:D35)</f>
         <v xml:space="preserve">3M Company 
 American Express Company 
@@ -11839,14 +11847,14 @@
 Caterpillar Inc. 
 International Business Machines Corporation </v>
       </c>
-      <c r="L3" s="24" t="str">
+      <c r="L3" s="19" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,E3:E35)</f>
         <v xml:space="preserve">Cisco Systems, Inc. 
 Dow Inc. 
 Honeywell International Inc. 
 NIKE, Inc. </v>
       </c>
-      <c r="M3" s="24" t="str">
+      <c r="M3" s="19" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,F3:F35)</f>
         <v xml:space="preserve">Salesforce.com, Inc. 
 The Goldman Sachs Group, Inc. 
@@ -11855,37 +11863,37 @@
       </c>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="str">
+      <c r="A4" s="20" t="str">
         <f>IF(AND(Classification!$L3=BSRW!A$1,Classification!$P3=BSRW!A$2),Classification!$A3,"")</f>
         <v/>
       </c>
-      <c r="B4" s="25" t="str">
+      <c r="B4" s="20" t="str">
         <f>IF(AND(Classification!$L3=BSRW!B$1,Classification!$P3=BSRW!B$2),Classification!$A3,"")</f>
         <v/>
       </c>
-      <c r="C4" s="25" t="str">
+      <c r="C4" s="20" t="str">
         <f>IF(AND(Classification!$L3=BSRW!C$1,Classification!$P3=BSRW!C$2),Classification!$A3,"")</f>
         <v/>
       </c>
-      <c r="D4" s="25" t="str">
+      <c r="D4" s="20" t="str">
         <f>IF(AND(Classification!$L3=BSRW!D$1,Classification!$P3=BSRW!D$2),Classification!$A3,"")</f>
         <v xml:space="preserve">American Express Company </v>
       </c>
-      <c r="E4" s="25" t="str">
+      <c r="E4" s="20" t="str">
         <f>IF(AND(Classification!$L3=BSRW!E$1,Classification!$P3=BSRW!E$2),Classification!$A3,"")</f>
         <v/>
       </c>
-      <c r="F4" s="25" t="str">
+      <c r="F4" s="20" t="str">
         <f>IF(AND(Classification!$L3=BSRW!F$1,Classification!$P3=BSRW!F$2),Classification!$A3,"")</f>
         <v/>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
@@ -17519,6 +17527,7 @@
       <c r="C1000" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -17532,7 +17541,7 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="13.75" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9.375" hidden="1" customWidth="1"/>
@@ -17564,14 +17573,14 @@
       <c r="F1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="17" t="s">
         <v>79</v>
       </c>
     </row>
@@ -17594,17 +17603,17 @@
       <c r="F2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="24" t="str">
+      <c r="K2" s="19" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,A3:A35)</f>
         <v xml:space="preserve">Apple Inc. 
 Chevron Corporation 
 Merck &amp; Co., Inc. 
 The Procter &amp; Gamble Company </v>
       </c>
-      <c r="L2" s="24" t="str">
+      <c r="L2" s="19" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,B3:B35)</f>
         <v xml:space="preserve">Intel Corporation 
 Johnson &amp; Johnson 
@@ -17615,7 +17624,7 @@
 Visa Inc. 
 Walmart Inc. </v>
       </c>
-      <c r="M2" s="24" t="str">
+      <c r="M2" s="19" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,C3:C35)</f>
         <v xml:space="preserve">The Home Depot, Inc. 
 The Walt Disney Company 
@@ -17647,10 +17656,10 @@
         <f>IF(AND(Classification!$L2=BSCA!F$1,Classification!$R2=BSCA!F$2),Classification!$A2,"")</f>
         <v xml:space="preserve">3M Company </v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="24" t="str">
+      <c r="K3" s="19" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,D3:D35)</f>
         <v xml:space="preserve">Amgen Inc. 
 Caterpillar Inc. 
@@ -17658,14 +17667,14 @@
 Dow Inc. 
 Honeywell International Inc. </v>
       </c>
-      <c r="L3" s="24" t="str">
+      <c r="L3" s="19" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,E3:E35)</f>
         <v xml:space="preserve">American Express Company 
 The Boeing Company 
 The Goldman Sachs Group, Inc. 
 The Travelers Companies, Inc. </v>
       </c>
-      <c r="M3" s="24" t="str">
+      <c r="M3" s="19" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,F3:F35)</f>
         <v xml:space="preserve">3M Company 
 International Business Machines Corporation 
@@ -23333,6 +23342,7 @@
       <c r="C1000" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
